--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2399.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2399.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.076933535218852</v>
+        <v>1.139845967292786</v>
       </c>
       <c r="B1">
-        <v>2.367436151512828</v>
+        <v>2.415846109390259</v>
       </c>
       <c r="C1">
-        <v>7.157528275916857</v>
+        <v>5.098052024841309</v>
       </c>
       <c r="D1">
-        <v>1.763120587528819</v>
+        <v>2.226372003555298</v>
       </c>
       <c r="E1">
-        <v>0.9878169098322823</v>
+        <v>1.253384351730347</v>
       </c>
     </row>
   </sheetData>
